--- a/02_MasterWifoMannheim/03_Courses/Course85.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course85.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B11593B80B55233F960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46235A9F-C2D8-42B2-9345-27D047C1A66D}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 685 Topics in Financial Regulation</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>This course provides an in-depth look into selected topics in financial regulation. The course will be offered in three blocked all-day sessions. The first session will analyse financial regulation from the perspective of a commercial bank manager. The second session will analyse financial regulation from the perspective of a financial regulator, such as the European Central Bank. and management of financial risks in accordance with the existing regulatory framework for banks. Students will be tasked with a graded group assignment that provides the opportunity to translate the knowledge acquired in the first two sessions into practice by analysing regulatory issues for existing banks. Groups will present their results in the final session.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>fter completing this course, students will have a thorough understanding of some of the key features of the current regulatory framework for banks and how they affect banks and regulators. regulatory banking risks. results on regulatory issues facing a real bank.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), Accounting and Taxation (AAT), FIN 590</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:Website of the Chair / “Student Portal” Class size: max. 25 students</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lectures 2 10</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>70% write up and presentation of group assignment, 30% class participation</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Dr. Sebastian Herzog, Dr. Philipp Marquardt, Prof Dr. Oliver Spalt</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>FIN 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 685 Topics in Financial Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This course provides an in-depth look into selected topics in financial regulation. The course will be offered in three blocked all-day sessions. The first session will analyse financial regulation from the perspective of a commercial bank manager. The second session will analyse financial regulation from the perspective of a financial regulator, such as the European Central Bank. and management of financial risks in accordance with the existing regulatory framework for banks. Students will be tasked with a graded group assignment that provides the opportunity to translate the knowledge acquired in the first two sessions into practice by analysing regulatory issues for existing banks. Groups will present their results in the final session.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fter completing this course, students will have a thorough understanding of some of the key features of the current regulatory framework for banks and how they affect banks and regulators. regulatory banking risks. results on regulatory issues facing a real bank.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN), Accounting and Taxation (AAT), FIN 590</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on registration:Website of the Chair / “Student Portal” Class size: max. 25 students</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lectures 2 10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>70% write up and presentation of group assignment, 30% class participation</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Dr. Sebastian Herzog, Dr. Philipp Marquardt, Prof Dr. Oliver Spalt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
